--- a/data/trans_orig/P25D_R_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R_2023-Provincia-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2458</v>
+        <v>2395</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001512897025972221</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.007777543624407491</v>
+        <v>0.007576349645395749</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2622</v>
+        <v>2674</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0007531308004169657</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.004130175009125065</v>
+        <v>0.004211700444765179</v>
       </c>
     </row>
     <row r="5">
@@ -817,7 +817,7 @@
         <v>315583</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>313603</v>
+        <v>313666</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>316061</v>
@@ -826,7 +826,7 @@
         <v>0.9984871029740278</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9922224563755921</v>
+        <v>0.9924236503546038</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>634428</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>632284</v>
+        <v>632232</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>634906</v>
@@ -847,7 +847,7 @@
         <v>0.9992468691995831</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9958698249908751</v>
+        <v>0.9957882995552347</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -942,19 +942,19 @@
         <v>11180</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3849</v>
+        <v>4628</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25347</v>
+        <v>25840</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0210683006056855</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007254131572178306</v>
+        <v>0.008721274136028365</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04776689247989473</v>
+        <v>0.04869599770683453</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9870</v>
+        <v>11469</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004664954203229999</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01805976803135154</v>
+        <v>0.02098677760157315</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -984,19 +984,19 @@
         <v>13729</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5626</v>
+        <v>6118</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27877</v>
+        <v>30426</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01274596106474311</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005222773678761769</v>
+        <v>0.005679445108254872</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02588051781190989</v>
+        <v>0.02824673001470687</v>
       </c>
     </row>
     <row r="8">
@@ -1013,19 +1013,19 @@
         <v>519467</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>505300</v>
+        <v>504807</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>526798</v>
+        <v>526019</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9789316993943145</v>
+        <v>0.9789316993943146</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9522331075201056</v>
+        <v>0.9513040022931655</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9927458684278216</v>
+        <v>0.9912787258639716</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>715</v>
@@ -1034,7 +1034,7 @@
         <v>543945</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>536624</v>
+        <v>535025</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>546494</v>
@@ -1043,7 +1043,7 @@
         <v>0.99533504579677</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9819402319686482</v>
+        <v>0.9790132223984256</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1055,19 +1055,19 @@
         <v>1063412</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1049264</v>
+        <v>1046715</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1071515</v>
+        <v>1071023</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9872540389352571</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9741194821880903</v>
+        <v>0.9717532699852932</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9947772263212382</v>
+        <v>0.9943205548917452</v>
       </c>
     </row>
     <row r="9">
@@ -1159,19 +1159,19 @@
         <v>3786</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9896</v>
+        <v>10280</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01198192530874471</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003102010920134242</v>
+        <v>0.0031032736114859</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0313179262167092</v>
+        <v>0.03253312933182938</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1180,19 +1180,19 @@
         <v>2605</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6020</v>
+        <v>6479</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007309266245243615</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001820692056671474</v>
+        <v>0.001872243683963971</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0168922523477863</v>
+        <v>0.01817933342444162</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1201,19 +1201,19 @@
         <v>6391</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2574</v>
+        <v>2616</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13685</v>
+        <v>13272</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.009505258162107667</v>
+        <v>0.009505258162107665</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003828647745261699</v>
+        <v>0.003890164946507608</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02035309818376153</v>
+        <v>0.01973878520542717</v>
       </c>
     </row>
     <row r="11">
@@ -1230,19 +1230,19 @@
         <v>312207</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>306097</v>
+        <v>305713</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>315013</v>
+        <v>315012</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9880180746912552</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9686820737832907</v>
+        <v>0.9674668706681709</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9968979890798657</v>
+        <v>0.9968967263885141</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>532</v>
@@ -1251,19 +1251,19 @@
         <v>353776</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>350361</v>
+        <v>349902</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>355732</v>
+        <v>355714</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9926907337547565</v>
+        <v>0.9926907337547562</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9831077476522141</v>
+        <v>0.9818206665755588</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9981793079433285</v>
+        <v>0.998127756316036</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>889</v>
@@ -1272,19 +1272,19 @@
         <v>665984</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>658690</v>
+        <v>659103</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>669801</v>
+        <v>669759</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9904947418378927</v>
+        <v>0.9904947418378922</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9796469018162386</v>
+        <v>0.9802612147945728</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9961713522547383</v>
+        <v>0.9961098350534924</v>
       </c>
     </row>
     <row r="12">
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20058</v>
+        <v>20601</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.013392642209419</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05375421816772073</v>
+        <v>0.05521000482701115</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5294</v>
+        <v>4206</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.003057618614761075</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01254637321297546</v>
+        <v>0.009966962610968848</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1418,19 +1418,19 @@
         <v>6288</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1481</v>
+        <v>1568</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20132</v>
+        <v>20832</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007907867064507194</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001863129173902847</v>
+        <v>0.001971537450237332</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02532032588276739</v>
+        <v>0.02620022825617417</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         <v>368148</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>353087</v>
+        <v>352544</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>373145</v>
@@ -1456,7 +1456,7 @@
         <v>0.9866073577905811</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9462457818322797</v>
+        <v>0.9447899951729898</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1468,16 +1468,16 @@
         <v>420671</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>416667</v>
+        <v>417755</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>421961</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9969423813852389</v>
+        <v>0.9969423813852392</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9874536267870248</v>
+        <v>0.9900330373890326</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1489,19 +1489,19 @@
         <v>788819</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>774975</v>
+        <v>774275</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>793626</v>
+        <v>793539</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9920921329354929</v>
+        <v>0.9920921329354927</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9746796741172331</v>
+        <v>0.9737997717438255</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.998136870826098</v>
+        <v>0.9980284625497627</v>
       </c>
     </row>
     <row r="15">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3872</v>
+        <v>4496</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003793138524423573</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01882825195147507</v>
+        <v>0.02186088348499336</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1614,19 +1614,19 @@
         <v>1667</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4178</v>
+        <v>4325</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.00733587266412564</v>
+        <v>0.007335872664125638</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00186852545438031</v>
+        <v>0.001961495173545382</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0183875208318192</v>
+        <v>0.01903496239702264</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1635,7 +1635,7 @@
         <v>2447</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>5721</v>
@@ -1644,10 +1644,10 @@
         <v>0.005652689317166303</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001905800456307342</v>
+        <v>0.001910104734467061</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01321512027270455</v>
+        <v>0.01321568187181302</v>
       </c>
     </row>
     <row r="17">
@@ -1664,16 +1664,16 @@
         <v>204885</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>201793</v>
+        <v>201169</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>205665</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9962068614755762</v>
+        <v>0.9962068614755765</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9811717480485251</v>
+        <v>0.9781391165150068</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1685,19 +1685,19 @@
         <v>225548</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>223037</v>
+        <v>222890</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>226790</v>
+        <v>226769</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9926641273358745</v>
+        <v>0.9926641273358743</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9816124791681807</v>
+        <v>0.9809650376029775</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9981314745456197</v>
+        <v>0.9980385048264547</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>766</v>
@@ -1709,16 +1709,16 @@
         <v>427158</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>432054</v>
+        <v>432052</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9943473106828339</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9867848797272963</v>
+        <v>0.986784318128187</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9980941995436927</v>
+        <v>0.9980898952655329</v>
       </c>
     </row>
     <row r="18">
@@ -1826,16 +1826,16 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6479</v>
+        <v>8920</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.006781251489686164</v>
+        <v>0.006781251489686162</v>
       </c>
       <c r="O19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02456515995807231</v>
+        <v>0.03382167746082718</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6955</v>
+        <v>6509</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.00334649214516796</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0130132911944137</v>
+        <v>0.01217807398100273</v>
       </c>
     </row>
     <row r="20">
@@ -1886,16 +1886,16 @@
         <v>261961</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>257271</v>
+        <v>254830</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>263750</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.993218748510314</v>
+        <v>0.9932187485103137</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9754348400419288</v>
+        <v>0.9661783225391741</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1907,16 +1907,16 @@
         <v>532668</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>527502</v>
+        <v>527948</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>534457</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9966535078548319</v>
+        <v>0.9966535078548321</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9869867088055865</v>
+        <v>0.9878219260189972</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -2011,19 +2011,19 @@
         <v>8714</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4120</v>
+        <v>4250</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16909</v>
+        <v>16572</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01225819723707721</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005796224641110941</v>
+        <v>0.005978491355692997</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02378770360296558</v>
+        <v>0.02331279682103167</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -2032,19 +2032,19 @@
         <v>8211</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3361</v>
+        <v>3557</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16612</v>
+        <v>17898</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01073453727785625</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004394602360975744</v>
+        <v>0.004650133579841293</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02171885826549478</v>
+        <v>0.02340039333522774</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -2053,19 +2053,19 @@
         <v>16924</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9914</v>
+        <v>9396</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28668</v>
+        <v>28500</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01146847003291677</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006718021880983328</v>
+        <v>0.006367208165763349</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01942666431053661</v>
+        <v>0.01931288562149597</v>
       </c>
     </row>
     <row r="23">
@@ -2082,19 +2082,19 @@
         <v>702122</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>693927</v>
+        <v>694264</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>706716</v>
+        <v>706586</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9877418027629227</v>
+        <v>0.9877418027629229</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9762122963970348</v>
+        <v>0.9766872031789684</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.994203775358889</v>
+        <v>0.9940215086443069</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>942</v>
@@ -2103,19 +2103,19 @@
         <v>756664</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>748263</v>
+        <v>746977</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>761514</v>
+        <v>761318</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9892654627221439</v>
+        <v>0.9892654627221437</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9782811417345045</v>
+        <v>0.9765996066647722</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9956053976390241</v>
+        <v>0.9953498664201587</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1525</v>
@@ -2124,19 +2124,19 @@
         <v>1458787</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1447043</v>
+        <v>1447211</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1465797</v>
+        <v>1466315</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9885315299670834</v>
+        <v>0.9885315299670832</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9805733356894634</v>
+        <v>0.980687114378504</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9932819781190166</v>
+        <v>0.9936327918342366</v>
       </c>
     </row>
     <row r="24">
@@ -2228,19 +2228,19 @@
         <v>13149</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6345</v>
+        <v>6701</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24010</v>
+        <v>23418</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0165162679846824</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007969749040977333</v>
+        <v>0.008417462204271867</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03015910136978624</v>
+        <v>0.02941498955679945</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -2249,19 +2249,19 @@
         <v>7355</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3133</v>
+        <v>3139</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14435</v>
+        <v>13581</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.008847183224365668</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003768550356684457</v>
+        <v>0.003775756983609594</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01736337157350952</v>
+        <v>0.01633653795406637</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>18</v>
@@ -2270,19 +2270,19 @@
         <v>20504</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11484</v>
+        <v>11824</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>32031</v>
+        <v>32061</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01259876966574227</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007056427084227924</v>
+        <v>0.007265038122989566</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01968141864201109</v>
+        <v>0.01969991715614826</v>
       </c>
     </row>
     <row r="26">
@@ -2299,19 +2299,19 @@
         <v>782974</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>772113</v>
+        <v>772705</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>789778</v>
+        <v>789422</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9834837320153177</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9698408986302146</v>
+        <v>0.970585010443201</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9920302509590228</v>
+        <v>0.9915825377957285</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1054</v>
@@ -2320,19 +2320,19 @@
         <v>823976</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>816896</v>
+        <v>817750</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>828198</v>
+        <v>828192</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9911528167756344</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9826366284264907</v>
+        <v>0.9836634620459336</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9962314496433157</v>
+        <v>0.9962242430163905</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1804</v>
@@ -2341,19 +2341,19 @@
         <v>1606951</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1595424</v>
+        <v>1595394</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1615971</v>
+        <v>1615631</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9874012303342576</v>
+        <v>0.9874012303342578</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9803185813579893</v>
+        <v>0.9803000828438516</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9929435729157722</v>
+        <v>0.9927349618770104</v>
       </c>
     </row>
     <row r="27">
@@ -2445,19 +2445,19 @@
         <v>42606</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>28576</v>
+        <v>28999</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>64423</v>
+        <v>62198</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01209726462553055</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008113522734029804</v>
+        <v>0.008233774452440884</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0182918074504673</v>
+        <v>0.01766016724044937</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>31</v>
@@ -2466,19 +2466,19 @@
         <v>25944</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>17677</v>
+        <v>17216</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>37860</v>
+        <v>37460</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.006958968628912842</v>
+        <v>0.006958968628912843</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004741705413575634</v>
+        <v>0.004617860481097255</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01015542746501573</v>
+        <v>0.01004805443916405</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>61</v>
@@ -2487,19 +2487,19 @@
         <v>68550</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>53718</v>
+        <v>50761</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>90389</v>
+        <v>89719</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.009455079850977367</v>
+        <v>0.00945507985097737</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007409341588647454</v>
+        <v>0.007001526036621513</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01246733929657033</v>
+        <v>0.0123749508699859</v>
       </c>
     </row>
     <row r="29">
@@ -2516,19 +2516,19 @@
         <v>3479357</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3457540</v>
+        <v>3459765</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3493387</v>
+        <v>3492964</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9879027353744693</v>
+        <v>0.9879027353744695</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9817081925495322</v>
+        <v>0.9823398327595505</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.99188647726597</v>
+        <v>0.9917662255475592</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5323</v>
@@ -2537,19 +2537,19 @@
         <v>3702126</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3690210</v>
+        <v>3690610</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3710393</v>
+        <v>3710854</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9930410313710869</v>
+        <v>0.9930410313710872</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9898445725349845</v>
+        <v>0.9899519455608361</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9952582945864245</v>
+        <v>0.9953821395189028</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8659</v>
@@ -2558,19 +2558,19 @@
         <v>7181482</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7159643</v>
+        <v>7160313</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7196314</v>
+        <v>7199271</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9905449201490225</v>
+        <v>0.990544920149023</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9875326607034297</v>
+        <v>0.9876250491300141</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9925906584113525</v>
+        <v>0.9929984739633785</v>
       </c>
     </row>
     <row r="30">
